--- a/docs/03_strategies/DCA_Conditional_Buy_LR_with_TrailingStop/Bear/Binance_BTC-USDT_1w/trades.xlsx
+++ b/docs/03_strategies/DCA_Conditional_Buy_LR_with_TrailingStop/Bear/Binance_BTC-USDT_1w/trades.xlsx
@@ -446,7 +446,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2">
-        <v>79198</v>
+        <v>49499</v>
       </c>
       <c r="B2">
         <v>42</v>
@@ -461,7 +461,7 @@
         <v>0.02090558</v>
       </c>
       <c r="F2">
-        <v>70.11238168060068</v>
+        <v>43.82045987030043</v>
       </c>
       <c r="G2">
         <v>0.04421910194823653</v>
